--- a/docs/Drivetrain Specs.xlsx
+++ b/docs/Drivetrain Specs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18168" windowHeight="5388"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Encoders</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>Degrees Per Count</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>AndyMark Treaded Wheels</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Circumference</t>
+  </si>
+  <si>
+    <t>Full Rotation Speed (RPM)</t>
+  </si>
+  <si>
+    <t>Full Distance Speed (MPH)</t>
   </si>
 </sst>
 </file>
@@ -100,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -130,6 +154,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,24 +473,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="4" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="2.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="7" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="11" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="24.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -472,19 +504,28 @@
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="5"/>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -503,8 +544,14 @@
       <c r="H3">
         <v>360</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -518,8 +565,15 @@
         <f>H3*4</f>
         <v>1440</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <f>PI()*K3</f>
+        <v>18.849555921538759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -534,15 +588,31 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2655</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <f>B8/E3</f>
+        <v>338.55799373040753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <f>K6*(K4/12/5280)*60</f>
+        <v>6.0432460563497017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -555,8 +625,9 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/docs/Drivetrain Specs.xlsx
+++ b/docs/Drivetrain Specs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Encoders</t>
   </si>
@@ -62,9 +62,6 @@
     <t>AndyMark ToughBox Mini</t>
   </si>
   <si>
-    <t>CPR (Cycles Per Rev)</t>
-  </si>
-  <si>
     <t>CPR (Counts Per Rev)</t>
   </si>
   <si>
@@ -77,22 +74,43 @@
     <t>AndyMark Treaded Wheels</t>
   </si>
   <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Circumference</t>
-  </si>
-  <si>
     <t>Full Rotation Speed (RPM)</t>
   </si>
   <si>
-    <t>Full Distance Speed (MPH)</t>
+    <t>Diameter (inches)</t>
+  </si>
+  <si>
+    <t>Circumference (inches)</t>
+  </si>
+  <si>
+    <t>DistancePerPulse (feet)</t>
+  </si>
+  <si>
+    <t>PPR (Pulses Per Rev)</t>
+  </si>
+  <si>
+    <t>Degrees Per Pulse</t>
+  </si>
+  <si>
+    <t>Full Speed PPS</t>
+  </si>
+  <si>
+    <t>DistancePerPulse (inches)</t>
+  </si>
+  <si>
+    <t>Full Speed (MPH)</t>
+  </si>
+  <si>
+    <t>Full Speed (FPS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,6 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -522,7 +541,7 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -539,7 +558,7 @@
         <v>12.76</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>360</v>
@@ -559,7 +578,7 @@
         <v>4614</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <f>H3*4</f>
@@ -568,7 +587,7 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <f>PI()*K3</f>
         <v>18.849555921538759</v>
       </c>
@@ -581,7 +600,7 @@
         <v>4320</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <f>360 /  1440</f>
@@ -595,29 +614,67 @@
       <c r="B6">
         <v>2655</v>
       </c>
-      <c r="J6" t="s">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <f>360/H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4320</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="6">
+        <f>(K9/60)*H3</f>
+        <v>2031.3479623824451</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6">
+        <f>B9/E3</f>
+        <v>338.55799373040753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="6">
+        <f>K4/H3</f>
+        <v>5.2359877559829883E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="6">
+        <f>K9/60*K4/12</f>
+        <v>8.8634275493128971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="K6">
-        <f>B8/E3</f>
-        <v>338.55799373040753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <f>K6*(K4/12/5280)*60</f>
-        <v>6.0432460563497017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4320</v>
+      <c r="H11" s="6">
+        <f>H10/12</f>
+        <v>4.3633231299858239E-3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="6">
+        <f>K10/5280*60*60</f>
+        <v>6.0432460563497026</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Drivetrain Specs.xlsx
+++ b/docs/Drivetrain Specs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Encoders</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Full Speed (FPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -176,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,6 +680,11 @@
         <v>6.0432460563497026</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/docs/Drivetrain Specs.xlsx
+++ b/docs/Drivetrain Specs.xlsx
@@ -315,7 +315,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
